--- a/tests/geo_results.xlsx
+++ b/tests/geo_results.xlsx
@@ -573,46 +573,46 @@
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>1174429.237237794</v>
+        <v>1045746.419719996</v>
       </c>
       <c r="E2" s="3">
-        <v>1179775.076012136</v>
+        <v>1050421.430854854</v>
       </c>
       <c r="F2" s="3">
-        <v>1185630.018623059</v>
+        <v>1055579.605749763</v>
       </c>
       <c r="G2" s="3">
-        <v>1192799.029012498</v>
+        <v>1061926.471963029</v>
       </c>
       <c r="H2" s="3">
-        <v>1202935.922700935</v>
+        <v>1070927.449413893</v>
       </c>
       <c r="I2" s="3">
-        <v>1216350.446026162</v>
+        <v>1082854.138232371</v>
       </c>
       <c r="J2" s="3">
-        <v>1233022.34355216</v>
+        <v>1097685.927433541</v>
       </c>
       <c r="K2" s="3">
-        <v>1252254.278665856</v>
+        <v>1114800.205285117</v>
       </c>
       <c r="L2" s="3">
-        <v>1273468.916429026</v>
+        <v>1133681.817041406</v>
       </c>
       <c r="M2" s="3">
-        <v>1296709.504789717</v>
+        <v>1154368.587372987</v>
       </c>
       <c r="N2" s="3">
-        <v>1321434.244462774</v>
+        <v>1176377.582978405</v>
       </c>
       <c r="O2" s="3">
-        <v>1347107.771271444</v>
+        <v>1199231.781707127</v>
       </c>
       <c r="P2" s="3">
-        <v>1373671.444112121</v>
+        <v>1222878.797630715</v>
       </c>
       <c r="Q2" s="3">
-        <v>16249588.23289568</v>
+        <v>14466480.2153832</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -624,46 +624,46 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>194002.3710602825</v>
+        <v>194591.1301726568</v>
       </c>
       <c r="E3" s="3">
-        <v>196435.018284229</v>
+        <v>197031.443607723</v>
       </c>
       <c r="F3" s="3">
-        <v>199287.59750205</v>
+        <v>199883.7171751625</v>
       </c>
       <c r="G3" s="3">
-        <v>202336.7925032685</v>
+        <v>202933.7580180973</v>
       </c>
       <c r="H3" s="3">
-        <v>206064.1891264609</v>
+        <v>206664.3347658204</v>
       </c>
       <c r="I3" s="3">
-        <v>210060.3753600363</v>
+        <v>210665.6615742097</v>
       </c>
       <c r="J3" s="3">
-        <v>213675.4357671188</v>
+        <v>214288.2038042638</v>
       </c>
       <c r="K3" s="3">
-        <v>218292.1962483321</v>
+        <v>218914.0535200474</v>
       </c>
       <c r="L3" s="3">
-        <v>222705.4030324534</v>
+        <v>223337.0069181414</v>
       </c>
       <c r="M3" s="3">
-        <v>227098.9029166523</v>
+        <v>227741.865405273</v>
       </c>
       <c r="N3" s="3">
-        <v>231522.6663180341</v>
+        <v>232177.9040221167</v>
       </c>
       <c r="O3" s="3">
-        <v>236497.8869916384</v>
+        <v>237165.7268501309</v>
       </c>
       <c r="P3" s="3">
-        <v>241119.0550979769</v>
+        <v>241799.8425491607</v>
       </c>
       <c r="Q3" s="3">
-        <v>2799097.890208533</v>
+        <v>2807194.648382803</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -675,46 +675,46 @@
         <v>0</v>
       </c>
       <c r="D4" s="3">
-        <v>762248.433236702</v>
+        <v>890821.0242059223</v>
       </c>
       <c r="E4" s="3">
-        <v>765718.0822379993</v>
+        <v>894803.4410985749</v>
       </c>
       <c r="F4" s="3">
-        <v>769518.1586413761</v>
+        <v>899197.4419349731</v>
       </c>
       <c r="G4" s="3">
-        <v>774171.1141059869</v>
+        <v>904604.0316721934</v>
       </c>
       <c r="H4" s="3">
-        <v>780750.3366652521</v>
+        <v>912271.5309821831</v>
       </c>
       <c r="I4" s="3">
-        <v>789456.8632596671</v>
+        <v>922431.3029386608</v>
       </c>
       <c r="J4" s="3">
-        <v>800277.5473548293</v>
+        <v>935065.7900359499</v>
       </c>
       <c r="K4" s="3">
-        <v>812759.7914472885</v>
+        <v>949644.6193169194</v>
       </c>
       <c r="L4" s="3">
-        <v>826528.883601953</v>
+        <v>965728.9552574595</v>
       </c>
       <c r="M4" s="3">
-        <v>841612.8933521699</v>
+        <v>983351.0188732484</v>
       </c>
       <c r="N4" s="3">
-        <v>857660.1727287441</v>
+        <v>1002099.422537121</v>
       </c>
       <c r="O4" s="3">
-        <v>874323.2503881492</v>
+        <v>1021567.814046772</v>
       </c>
       <c r="P4" s="3">
-        <v>891564.06606423</v>
+        <v>1041711.56835205</v>
       </c>
       <c r="Q4" s="3">
-        <v>10546589.59308435</v>
+        <v>12323297.96125203</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,46 +726,46 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
-        <v>57451.84522579466</v>
+        <v>57448.57533803523</v>
       </c>
       <c r="E5" s="3">
-        <v>57713.35804591814</v>
+        <v>57705.39929107234</v>
       </c>
       <c r="F5" s="3">
-        <v>57999.7756912074</v>
+        <v>57988.76607432759</v>
       </c>
       <c r="G5" s="3">
-        <v>58350.47615255216</v>
+        <v>58337.43417869529</v>
       </c>
       <c r="H5" s="3">
-        <v>58846.36234883597</v>
+        <v>58831.90714216973</v>
       </c>
       <c r="I5" s="3">
-        <v>59502.58674569391</v>
+        <v>59487.10544665447</v>
       </c>
       <c r="J5" s="3">
-        <v>60318.15846846255</v>
+        <v>60301.89681792141</v>
       </c>
       <c r="K5" s="3">
-        <v>61258.96454217989</v>
+        <v>61242.07778528778</v>
       </c>
       <c r="L5" s="3">
-        <v>62296.76234782505</v>
+        <v>62279.3480785727</v>
       </c>
       <c r="M5" s="3">
-        <v>63433.66752960948</v>
+        <v>63415.78561398649</v>
       </c>
       <c r="N5" s="3">
-        <v>64643.17583535075</v>
+        <v>64624.86022166321</v>
       </c>
       <c r="O5" s="3">
-        <v>65899.09781161313</v>
+        <v>65880.3664636152</v>
       </c>
       <c r="P5" s="3">
-        <v>67198.56479717673</v>
+        <v>67179.42649402835</v>
       </c>
       <c r="Q5" s="3">
-        <v>794912.7955422199</v>
+        <v>794722.9489460299</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -777,46 +777,46 @@
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>393416.7019801891</v>
+        <v>393394.3105591112</v>
       </c>
       <c r="E6" s="3">
-        <v>395207.4801669325</v>
+        <v>395152.9804886195</v>
       </c>
       <c r="F6" s="3">
-        <v>397168.8007294975</v>
+        <v>397093.4094666773</v>
       </c>
       <c r="G6" s="3">
-        <v>399570.314873089</v>
+        <v>399481.0065084591</v>
       </c>
       <c r="H6" s="3">
-        <v>402966.0267276473</v>
+        <v>402867.0408776588</v>
       </c>
       <c r="I6" s="3">
-        <v>407459.6968083233</v>
+        <v>407353.6845194834</v>
       </c>
       <c r="J6" s="3">
-        <v>413044.5398388459</v>
+        <v>412933.1838867523</v>
       </c>
       <c r="K6" s="3">
-        <v>419486.9582027843</v>
+        <v>419371.3216696577</v>
       </c>
       <c r="L6" s="3">
-        <v>426593.5530982931</v>
+        <v>426474.3042847915</v>
       </c>
       <c r="M6" s="3">
-        <v>434378.811958543</v>
+        <v>434256.3608128602</v>
       </c>
       <c r="N6" s="3">
-        <v>442661.239908285</v>
+        <v>442535.8189004239</v>
       </c>
       <c r="O6" s="3">
-        <v>451261.4977399299</v>
+        <v>451133.2298814472</v>
       </c>
       <c r="P6" s="3">
-        <v>460159.941537224</v>
+        <v>460028.8869457388</v>
       </c>
       <c r="Q6" s="3">
-        <v>5443375.563569583</v>
+        <v>5442075.53880168</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -825,46 +825,46 @@
         <v>9</v>
       </c>
       <c r="C7" s="3">
-        <v>0.3411657413950535</v>
+        <v>0.4015140439418308</v>
       </c>
       <c r="D7" s="3">
-        <v>0.3426733113850459</v>
+        <v>0.4031230082552257</v>
       </c>
       <c r="E7" s="3">
-        <v>0.342366280618036</v>
+        <v>0.402746462302749</v>
       </c>
       <c r="F7" s="3">
-        <v>0.3419283276637799</v>
+        <v>0.4022585286572165</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3415879537651547</v>
+        <v>0.4018794242062148</v>
       </c>
       <c r="H7" s="3">
-        <v>0.3412243830534303</v>
+        <v>0.4014721452491316</v>
       </c>
       <c r="I7" s="3">
-        <v>0.3409469515001629</v>
+        <v>0.4011626099531341</v>
       </c>
       <c r="J7" s="3">
-        <v>0.3408805089871781</v>
+        <v>0.4010897909228338</v>
       </c>
       <c r="K7" s="3">
-        <v>0.340641922725587</v>
+        <v>0.4008202659737071</v>
       </c>
       <c r="L7" s="3">
-        <v>0.3405520902478161</v>
+        <v>0.4007217468082908</v>
       </c>
       <c r="M7" s="3">
-        <v>0.3405249827248819</v>
+        <v>0.4006914454175537</v>
       </c>
       <c r="N7" s="3">
-        <v>0.3405256679708276</v>
+        <v>0.4006920590589814</v>
       </c>
       <c r="O7" s="3">
-        <v>0.3404330779092418</v>
+        <v>0.4005874191192261</v>
       </c>
       <c r="P7" s="3">
-        <v>0.3404635387847519</v>
+        <v>0.4006230139963161</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>10</v>
@@ -879,43 +879,43 @@
         <v>0.04535037632743646</v>
       </c>
       <c r="D8" s="3">
-        <v>0.04515548558273001</v>
+        <v>0.04515657430369698</v>
       </c>
       <c r="E8" s="3">
-        <v>0.04521924154741504</v>
+        <v>0.04522095638514674</v>
       </c>
       <c r="F8" s="3">
-        <v>0.04532175727369731</v>
+        <v>0.04532386403213841</v>
       </c>
       <c r="G8" s="3">
-        <v>0.04541341817059682</v>
+        <v>0.04541577899872648</v>
       </c>
       <c r="H8" s="3">
-        <v>0.04551104842687752</v>
+        <v>0.04551357741452763</v>
       </c>
       <c r="I8" s="3">
-        <v>0.04558940035058115</v>
+        <v>0.04559203938440881</v>
       </c>
       <c r="J8" s="3">
-        <v>0.04561731653705062</v>
+        <v>0.04562002455084121</v>
       </c>
       <c r="K8" s="3">
-        <v>0.04567798353303308</v>
+        <v>0.04568073900750128</v>
       </c>
       <c r="L8" s="3">
-        <v>0.04570682066976688</v>
+        <v>0.04570960468430475</v>
       </c>
       <c r="M8" s="3">
-        <v>0.04571844820456757</v>
+        <v>0.04572124897594175</v>
       </c>
       <c r="N8" s="3">
-        <v>0.04572076812883258</v>
+        <v>0.04572357900946061</v>
       </c>
       <c r="O8" s="3">
-        <v>0.04574265968887876</v>
+        <v>0.04574547851850483</v>
       </c>
       <c r="P8" s="3">
-        <v>0.04573839243883134</v>
+        <v>0.04574121441921322</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>10</v>
@@ -930,43 +930,43 @@
         <v>0.2195512735036556</v>
       </c>
       <c r="D9" s="3">
-        <v>0.2202945701316713</v>
+        <v>0.2202965404820449</v>
       </c>
       <c r="E9" s="3">
-        <v>0.2199511042466931</v>
+        <v>0.2199540861933086</v>
       </c>
       <c r="F9" s="3">
-        <v>0.219909407092672</v>
+        <v>0.219912938403022</v>
       </c>
       <c r="G9" s="3">
-        <v>0.2199585506094206</v>
+        <v>0.2199624064315167</v>
       </c>
       <c r="H9" s="3">
-        <v>0.2199882531511454</v>
+        <v>0.2199923044084095</v>
       </c>
       <c r="I9" s="3">
-        <v>0.2200464292993394</v>
+        <v>0.220050607853336</v>
       </c>
       <c r="J9" s="3">
-        <v>0.2201342016241574</v>
+        <v>0.2201384689831582</v>
       </c>
       <c r="K9" s="3">
-        <v>0.2201112391028587</v>
+        <v>0.2201155478670164</v>
       </c>
       <c r="L9" s="3">
-        <v>0.2201668076182567</v>
+        <v>0.2201711543089961</v>
       </c>
       <c r="M9" s="3">
-        <v>0.2201993185121726</v>
+        <v>0.2202036879296301</v>
       </c>
       <c r="N9" s="3">
-        <v>0.2202154462614397</v>
+        <v>0.2202198289200738</v>
       </c>
       <c r="O9" s="3">
-        <v>0.2201946331395412</v>
+        <v>0.2201990181272006</v>
       </c>
       <c r="P9" s="3">
-        <v>0.2202307532807303</v>
+        <v>0.2202351486557463</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>10</v>
@@ -1236,43 +1236,43 @@
         <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>90.23366095827092</v>
+        <v>90.5075024058869</v>
       </c>
       <c r="E15" s="3">
-        <v>89.75572168839344</v>
+        <v>90.02817788054708</v>
       </c>
       <c r="F15" s="3">
-        <v>89.48785839856772</v>
+        <v>89.75816251222189</v>
       </c>
       <c r="G15" s="3">
-        <v>89.29670567641824</v>
+        <v>89.56483077493118</v>
       </c>
       <c r="H15" s="3">
-        <v>89.11839004252596</v>
+        <v>89.38431997673749</v>
       </c>
       <c r="I15" s="3">
-        <v>88.96806655643057</v>
+        <v>89.23196209968113</v>
       </c>
       <c r="J15" s="3">
-        <v>88.86636122521537</v>
+        <v>89.12864056987084</v>
       </c>
       <c r="K15" s="3">
-        <v>88.75292077120011</v>
+        <v>89.01365274015048</v>
       </c>
       <c r="L15" s="3">
-        <v>88.66536786693152</v>
+        <v>88.9247648527426</v>
       </c>
       <c r="M15" s="3">
-        <v>88.59509460792214</v>
+        <v>88.85337748882556</v>
       </c>
       <c r="N15" s="3">
-        <v>88.5385563737192</v>
+        <v>88.79592215802867</v>
       </c>
       <c r="O15" s="3">
-        <v>88.48076219683693</v>
+        <v>88.73728141935811</v>
       </c>
       <c r="P15" s="3">
-        <v>88.43911185492993</v>
+        <v>88.69493359819285</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>10</v>
@@ -1356,46 +1356,46 @@
         <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>1197986.755961799</v>
+        <v>1080641.664339704</v>
       </c>
       <c r="E18" s="3">
-        <v>1218466.519490836</v>
+        <v>1108351.863253139</v>
       </c>
       <c r="F18" s="3">
-        <v>1236095.056257784</v>
+        <v>1132885.738191048</v>
       </c>
       <c r="G18" s="3">
-        <v>1252053.836843193</v>
+        <v>1154494.230294184</v>
       </c>
       <c r="H18" s="3">
-        <v>1268836.535694788</v>
+        <v>1175326.317571238</v>
       </c>
       <c r="I18" s="3">
-        <v>1287408.353219536</v>
+        <v>1196493.119480839</v>
       </c>
       <c r="J18" s="3">
-        <v>1308228.43827286</v>
+        <v>1218723.447565057</v>
       </c>
       <c r="K18" s="3">
-        <v>1330904.306207927</v>
+        <v>1241919.76080212</v>
       </c>
       <c r="L18" s="3">
-        <v>1355072.137102244</v>
+        <v>1265953.674692837</v>
       </c>
       <c r="M18" s="3">
-        <v>1380957.608187357</v>
+        <v>1291194.658352306</v>
       </c>
       <c r="N18" s="3">
-        <v>1408111.679458007</v>
+        <v>1317337.301890481</v>
       </c>
       <c r="O18" s="3">
-        <v>1436054.767980796</v>
+        <v>1344015.037093777</v>
       </c>
       <c r="P18" s="3">
-        <v>1464788.686801593</v>
+        <v>1371288.377266023</v>
       </c>
       <c r="Q18" s="3">
-        <v>17144964.68147872</v>
+        <v>15898625.19079275</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1407,46 +1407,46 @@
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>190376.0726326996</v>
+        <v>182290.0109226494</v>
       </c>
       <c r="E19" s="3">
-        <v>192646.8185958524</v>
+        <v>184264.5282826322</v>
       </c>
       <c r="F19" s="3">
-        <v>195325.4015948094</v>
+        <v>186719.2330528855</v>
       </c>
       <c r="G19" s="3">
-        <v>198224.804565132</v>
+        <v>189419.9525520183</v>
       </c>
       <c r="H19" s="3">
-        <v>201823.5859501583</v>
+        <v>192803.5285327336</v>
       </c>
       <c r="I19" s="3">
-        <v>205700.1097528057</v>
+        <v>196468.3263127153</v>
       </c>
       <c r="J19" s="3">
-        <v>209201.4092443317</v>
+        <v>199792.7516835433</v>
       </c>
       <c r="K19" s="3">
-        <v>213714.925538089</v>
+        <v>204077.2056694859</v>
       </c>
       <c r="L19" s="3">
-        <v>218019.9502886696</v>
+        <v>208176.4205233092</v>
       </c>
       <c r="M19" s="3">
-        <v>222307.796377206</v>
+        <v>212263.3541266902</v>
       </c>
       <c r="N19" s="3">
-        <v>226627.6290332625</v>
+        <v>216383.7152332256</v>
       </c>
       <c r="O19" s="3">
-        <v>231500.3307323973</v>
+        <v>221027.4134437617</v>
       </c>
       <c r="P19" s="3">
-        <v>236013.7388411519</v>
+        <v>225337.4053207584</v>
       </c>
       <c r="Q19" s="3">
-        <v>2741482.573146565</v>
+        <v>2619023.845656409</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1458,46 +1458,46 @@
         <v>0</v>
       </c>
       <c r="D20" s="3">
-        <v>739018.6405722935</v>
+        <v>856431.9191175683</v>
       </c>
       <c r="E20" s="3">
-        <v>728078.6901385143</v>
+        <v>838869.5664688291</v>
       </c>
       <c r="F20" s="3">
-        <v>720833.231388331</v>
+        <v>826041.9202490216</v>
       </c>
       <c r="G20" s="3">
-        <v>717313.4787098733</v>
+        <v>818380.2603748974</v>
       </c>
       <c r="H20" s="3">
-        <v>717741.6932270544</v>
+        <v>816102.9505414933</v>
       </c>
       <c r="I20" s="3">
-        <v>721683.084749805</v>
+        <v>818541.2896283279</v>
       </c>
       <c r="J20" s="3">
-        <v>728668.8899901472</v>
+        <v>824979.7105214216</v>
       </c>
       <c r="K20" s="3">
-        <v>737962.0309457175</v>
+        <v>834433.1608858471</v>
       </c>
       <c r="L20" s="3">
-        <v>748989.5088983289</v>
+        <v>846138.7773513044</v>
       </c>
       <c r="M20" s="3">
-        <v>761609.2734338653</v>
+        <v>859850.906865038</v>
       </c>
       <c r="N20" s="3">
-        <v>775386.0243992634</v>
+        <v>875017.6170686218</v>
       </c>
       <c r="O20" s="3">
-        <v>789922.5421473645</v>
+        <v>891147.4264210901</v>
       </c>
       <c r="P20" s="3">
-        <v>805124.7266292886</v>
+        <v>908103.0762284172</v>
       </c>
       <c r="Q20" s="3">
-        <v>9692331.815229846</v>
+        <v>11014038.58172188</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1509,46 +1509,46 @@
         <v>0</v>
       </c>
       <c r="D21" s="3">
-        <v>55568.33274009707</v>
+        <v>54765.47859847281</v>
       </c>
       <c r="E21" s="3">
-        <v>55842.00854363595</v>
+        <v>55052.38130685516</v>
       </c>
       <c r="F21" s="3">
-        <v>56139.87572311536</v>
+        <v>55383.34303376374</v>
       </c>
       <c r="G21" s="3">
-        <v>56496.72348561183</v>
+        <v>55777.65172109361</v>
       </c>
       <c r="H21" s="3">
-        <v>56990.46592047982</v>
+        <v>56302.23750640799</v>
       </c>
       <c r="I21" s="3">
-        <v>57636.31930511016</v>
+        <v>56969.60856298239</v>
       </c>
       <c r="J21" s="3">
-        <v>58434.00782303466</v>
+        <v>57780.1393409406</v>
       </c>
       <c r="K21" s="3">
-        <v>59351.12685976255</v>
+        <v>58703.22246232163</v>
       </c>
       <c r="L21" s="3">
-        <v>60360.80119334779</v>
+        <v>59713.66032155216</v>
       </c>
       <c r="M21" s="3">
-        <v>61465.42988928877</v>
+        <v>60814.95348049528</v>
       </c>
       <c r="N21" s="3">
-        <v>62639.64321538904</v>
+        <v>61982.86292264629</v>
       </c>
       <c r="O21" s="3">
-        <v>63858.2876756228</v>
+        <v>63193.1296286935</v>
       </c>
       <c r="P21" s="3">
-        <v>65118.71576322513</v>
+        <v>64443.58383179877</v>
       </c>
       <c r="Q21" s="3">
-        <v>769901.7381377209</v>
+        <v>760882.252718024</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1560,46 +1560,46 @@
         <v>0</v>
       </c>
       <c r="D22" s="3">
-        <v>436554.204265375</v>
+        <v>414758.0092570637</v>
       </c>
       <c r="E22" s="3">
-        <v>438704.247585901</v>
+        <v>416930.8232125769</v>
       </c>
       <c r="F22" s="3">
-        <v>441044.3424403318</v>
+        <v>419437.3114329996</v>
       </c>
       <c r="G22" s="3">
-        <v>443847.7987133345</v>
+        <v>422423.5482079717</v>
       </c>
       <c r="H22" s="3">
-        <v>447726.7226460352</v>
+        <v>426396.4187382697</v>
       </c>
       <c r="I22" s="3">
-        <v>452800.6558827607</v>
+        <v>431450.6517687156</v>
       </c>
       <c r="J22" s="3">
-        <v>459067.4315627674</v>
+        <v>437589.0831402786</v>
       </c>
       <c r="K22" s="3">
-        <v>466272.473563361</v>
+        <v>444579.9125386631</v>
       </c>
       <c r="L22" s="3">
-        <v>474204.6456032723</v>
+        <v>452232.3097366326</v>
       </c>
       <c r="M22" s="3">
-        <v>482882.7951461187</v>
+        <v>460572.7857061864</v>
       </c>
       <c r="N22" s="3">
-        <v>492107.6132922932</v>
+        <v>469417.7699483689</v>
       </c>
       <c r="O22" s="3">
-        <v>501681.4899300544</v>
+        <v>478583.5404760138</v>
       </c>
       <c r="P22" s="3">
-        <v>511583.6257992472</v>
+        <v>488053.664890512</v>
       </c>
       <c r="Q22" s="3">
-        <v>6048478.046430852</v>
+        <v>5762425.829054252</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1608,46 +1608,46 @@
         <v>9</v>
       </c>
       <c r="C23" s="3">
-        <v>0.3411657413950535</v>
+        <v>0.4015140439418308</v>
       </c>
       <c r="D23" s="3">
-        <v>0.3249604164310754</v>
+        <v>0.374810691905593</v>
       </c>
       <c r="E23" s="3">
-        <v>0.3207031244107286</v>
+        <v>0.3675296393353082</v>
       </c>
       <c r="F23" s="3">
-        <v>0.317461810239259</v>
+        <v>0.362174312724344</v>
       </c>
       <c r="G23" s="3">
-        <v>0.3151394611007713</v>
+        <v>0.3583546543962235</v>
       </c>
       <c r="H23" s="3">
-        <v>0.3133960570576945</v>
+        <v>0.3555437505511014</v>
       </c>
       <c r="I23" s="3">
-        <v>0.3121521967195917</v>
+        <v>0.353549083890525</v>
       </c>
       <c r="J23" s="3">
-        <v>0.3113904024641059</v>
+        <v>0.3522720805388516</v>
       </c>
       <c r="K23" s="3">
-        <v>0.3106956454648082</v>
+        <v>0.3512007560483724</v>
       </c>
       <c r="L23" s="3">
-        <v>0.3102751345636876</v>
+        <v>0.3505259525783075</v>
       </c>
       <c r="M23" s="3">
-        <v>0.3100125848895206</v>
+        <v>0.3500876877959934</v>
       </c>
       <c r="N23" s="3">
-        <v>0.3098465611120333</v>
+        <v>0.3498007300941261</v>
       </c>
       <c r="O23" s="3">
-        <v>0.3096526600000419</v>
+        <v>0.3495156426601903</v>
       </c>
       <c r="P23" s="3">
-        <v>0.3095974647017549</v>
+        <v>0.3494052289301827</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>10</v>
@@ -1662,43 +1662,43 @@
         <v>0.04535037632743646</v>
       </c>
       <c r="D24" s="3">
-        <v>0.04407855041594076</v>
+        <v>0.04315618160277651</v>
       </c>
       <c r="E24" s="3">
-        <v>0.04414203358100332</v>
+        <v>0.04322102801746291</v>
       </c>
       <c r="F24" s="3">
-        <v>0.04424252570463654</v>
+        <v>0.04331424950885374</v>
       </c>
       <c r="G24" s="3">
-        <v>0.04433174976724129</v>
+        <v>0.04339500204401682</v>
       </c>
       <c r="H24" s="3">
-        <v>0.04442766200539057</v>
+        <v>0.043483299404913</v>
       </c>
       <c r="I24" s="3">
-        <v>0.04450442156075158</v>
+        <v>0.04355384857254522</v>
       </c>
       <c r="J24" s="3">
-        <v>0.04453060633358465</v>
+        <v>0.04357584736886638</v>
       </c>
       <c r="K24" s="3">
-        <v>0.04459097117827236</v>
+        <v>0.04363282212311616</v>
       </c>
       <c r="L24" s="3">
-        <v>0.04461889519641019</v>
+        <v>0.04365817342354131</v>
       </c>
       <c r="M24" s="3">
-        <v>0.04462986877394728</v>
+        <v>0.04366757286547103</v>
       </c>
       <c r="N24" s="3">
-        <v>0.04463175932427238</v>
+        <v>0.04366855535386072</v>
       </c>
       <c r="O24" s="3">
-        <v>0.04465373179694784</v>
+        <v>0.04368962531089947</v>
       </c>
       <c r="P24" s="3">
-        <v>0.04464898026834362</v>
+        <v>0.04368436108854368</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>10</v>
@@ -1713,43 +1713,43 @@
         <v>0.2195512735036556</v>
       </c>
       <c r="D25" s="3">
-        <v>0.2428588566577222</v>
+        <v>0.2232683128942309</v>
       </c>
       <c r="E25" s="3">
-        <v>0.2424758866287279</v>
+        <v>0.2229601443084994</v>
       </c>
       <c r="F25" s="3">
-        <v>0.2424191288084065</v>
+        <v>0.2228938644721913</v>
       </c>
       <c r="G25" s="3">
-        <v>0.2424628692826889</v>
+        <v>0.222903036291066</v>
       </c>
       <c r="H25" s="3">
-        <v>0.2424850019436705</v>
+        <v>0.2228895711953243</v>
       </c>
       <c r="I25" s="3">
-        <v>0.2425405713179752</v>
+        <v>0.222908697971454</v>
       </c>
       <c r="J25" s="3">
-        <v>0.2426334974374293</v>
+        <v>0.2229738478050587</v>
       </c>
       <c r="K25" s="3">
-        <v>0.2426020793600986</v>
+        <v>0.2229281201595912</v>
       </c>
       <c r="L25" s="3">
-        <v>0.2426600476921185</v>
+        <v>0.2229654515535326</v>
       </c>
       <c r="M25" s="3">
-        <v>0.2426943337456566</v>
+        <v>0.2229888699911535</v>
       </c>
       <c r="N25" s="3">
-        <v>0.2427115537039301</v>
+        <v>0.2230016017677114</v>
       </c>
       <c r="O25" s="3">
-        <v>0.2426865263389633</v>
+        <v>0.2229741709692579</v>
       </c>
       <c r="P25" s="3">
-        <v>0.2427264582457945</v>
+        <v>0.2230077587319981</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>10</v>
@@ -1764,46 +1764,46 @@
         <v>0</v>
       </c>
       <c r="D26" s="3">
-        <v>8245.104835657979</v>
+        <v>7051.80963708421</v>
       </c>
       <c r="E26" s="3">
-        <v>8401.410140599361</v>
+        <v>7185.493232100025</v>
       </c>
       <c r="F26" s="3">
-        <v>8596.79177177609</v>
+        <v>7352.597725869793</v>
       </c>
       <c r="G26" s="3">
-        <v>8753.097076717473</v>
+        <v>7486.281320885607</v>
       </c>
       <c r="H26" s="3">
-        <v>8909.402381658858</v>
+        <v>7619.964915901422</v>
       </c>
       <c r="I26" s="3">
-        <v>9104.784012835586</v>
+        <v>7787.069409671189</v>
       </c>
       <c r="J26" s="3">
-        <v>9300.165644012315</v>
+        <v>7954.173903440957</v>
       </c>
       <c r="K26" s="3">
-        <v>9456.470948953698</v>
+        <v>8087.85749845677</v>
       </c>
       <c r="L26" s="3">
-        <v>9690.928906365776</v>
+        <v>8288.382890980492</v>
       </c>
       <c r="M26" s="3">
-        <v>9886.310537542502</v>
+        <v>8455.487384750262</v>
       </c>
       <c r="N26" s="3">
-        <v>10081.69216871923</v>
+        <v>8622.59187852003</v>
       </c>
       <c r="O26" s="3">
-        <v>10277.07379989596</v>
+        <v>8789.696372289798</v>
       </c>
       <c r="P26" s="3">
-        <v>10511.53175730804</v>
+        <v>8990.221764813519</v>
       </c>
       <c r="Q26" s="3">
-        <v>121214.7639820429</v>
+        <v>103671.6279347641</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1815,46 +1815,46 @@
         <v>0</v>
       </c>
       <c r="D27" s="3">
-        <v>666843.7946362772</v>
+        <v>230102.4453511795</v>
       </c>
       <c r="E27" s="3">
-        <v>682351.7898603767</v>
+        <v>235453.6650105093</v>
       </c>
       <c r="F27" s="3">
-        <v>694758.1860396564</v>
+        <v>239734.640737973</v>
       </c>
       <c r="G27" s="3">
-        <v>707164.5822189359</v>
+        <v>244015.6164654368</v>
       </c>
       <c r="H27" s="3">
-        <v>722672.5774430352</v>
+        <v>249366.8361247666</v>
       </c>
       <c r="I27" s="3">
-        <v>738180.5726671347</v>
+        <v>254718.0557840963</v>
       </c>
       <c r="J27" s="3">
-        <v>750586.9688464144</v>
+        <v>258999.0315115601</v>
       </c>
       <c r="K27" s="3">
-        <v>769196.5631153337</v>
+        <v>265420.4951027558</v>
       </c>
       <c r="L27" s="3">
-        <v>784704.5583394332</v>
+        <v>270771.7147620856</v>
       </c>
       <c r="M27" s="3">
-        <v>800212.5535635327</v>
+        <v>276122.9344214154</v>
       </c>
       <c r="N27" s="3">
-        <v>815720.5487876323</v>
+        <v>281474.1540807451</v>
       </c>
       <c r="O27" s="3">
-        <v>834330.1430565517</v>
+        <v>287895.6176719409</v>
       </c>
       <c r="P27" s="3">
-        <v>849838.1382806511</v>
+        <v>293246.8373312706</v>
       </c>
       <c r="Q27" s="3">
-        <v>9816560.976854965</v>
+        <v>3387322.044355736</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1866,43 +1866,43 @@
         <v>0.18698022</v>
       </c>
       <c r="D28" s="3">
-        <v>0.2637947206807857</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="E28" s="3">
-        <v>0.2637947206807858</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="F28" s="3">
-        <v>0.2637947206807859</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="G28" s="3">
-        <v>0.2637947206807857</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="H28" s="3">
-        <v>0.2637947206807857</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="I28" s="3">
-        <v>0.2637947206807857</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="J28" s="3">
-        <v>0.2637947206807858</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="K28" s="3">
-        <v>0.2637947206807857</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="L28" s="3">
-        <v>0.2637947206807858</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="M28" s="3">
-        <v>0.2637947206807858</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="N28" s="3">
-        <v>0.2637947206807857</v>
+        <v>0.09102553069791736</v>
       </c>
       <c r="O28" s="3">
-        <v>0.2637947206807858</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="P28" s="3">
-        <v>0.2637947206807858</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>10</v>
@@ -1917,46 +1917,46 @@
         <v>0</v>
       </c>
       <c r="D29" s="3">
-        <v>2298560.887151937</v>
+        <v>2181680.445705114</v>
       </c>
       <c r="E29" s="3">
-        <v>2385527.014139843</v>
+        <v>2264226.722129289</v>
       </c>
       <c r="F29" s="3">
-        <v>2476160.763780803</v>
+        <v>2350252.329113401</v>
       </c>
       <c r="G29" s="3">
-        <v>2569083.386839511</v>
+        <v>2438448.660593645</v>
       </c>
       <c r="H29" s="3">
-        <v>2660845.677839593</v>
+        <v>2525542.316981544</v>
       </c>
       <c r="I29" s="3">
-        <v>2754421.836130742</v>
+        <v>2614356.684027964</v>
       </c>
       <c r="J29" s="3">
-        <v>2853326.130262354</v>
+        <v>2708228.237079227</v>
       </c>
       <c r="K29" s="3">
-        <v>2950976.140734175</v>
+        <v>2800910.731312267</v>
       </c>
       <c r="L29" s="3">
-        <v>3052785.571094043</v>
+        <v>2897541.223989068</v>
       </c>
       <c r="M29" s="3">
-        <v>3157910.053548162</v>
+        <v>2997318.915439798</v>
       </c>
       <c r="N29" s="3">
-        <v>3265914.573142322</v>
+        <v>3099830.174666676</v>
       </c>
       <c r="O29" s="3">
-        <v>3373636.501008138</v>
+        <v>3202072.240260701</v>
       </c>
       <c r="P29" s="3">
-        <v>3485347.358550946</v>
+        <v>3308098.147032259</v>
       </c>
       <c r="Q29" s="3">
-        <v>37284495.89422256</v>
+        <v>35388506.82833096</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1968,43 +1968,43 @@
         <v>0.1883766607292806</v>
       </c>
       <c r="D30" s="3">
-        <v>0.2031450190815312</v>
+        <v>0.1928152167949394</v>
       </c>
       <c r="E30" s="3">
-        <v>0.2031608121227274</v>
+        <v>0.192830404758016</v>
       </c>
       <c r="F30" s="3">
-        <v>0.2031636918874101</v>
+        <v>0.1928331742566661</v>
       </c>
       <c r="G30" s="3">
-        <v>0.2031552187979132</v>
+        <v>0.1928250261194526</v>
       </c>
       <c r="H30" s="3">
-        <v>0.2031391622547603</v>
+        <v>0.1928095848561666</v>
       </c>
       <c r="I30" s="3">
-        <v>0.2031188137434778</v>
+        <v>0.1927900154567634</v>
       </c>
       <c r="J30" s="3">
-        <v>0.2030999138329048</v>
+        <v>0.1927718376658389</v>
       </c>
       <c r="K30" s="3">
-        <v>0.2030904458621932</v>
+        <v>0.1927627273532914</v>
       </c>
       <c r="L30" s="3">
-        <v>0.2030822052941243</v>
+        <v>0.1927547965602622</v>
       </c>
       <c r="M30" s="3">
-        <v>0.2030783930155837</v>
+        <v>0.1927511228569712</v>
       </c>
       <c r="N30" s="3">
-        <v>0.203074777858854</v>
+        <v>0.1927476392975376</v>
       </c>
       <c r="O30" s="3">
-        <v>0.203066517607251</v>
+        <v>0.1927396916538818</v>
       </c>
       <c r="P30" s="3">
-        <v>0.2030480110778896</v>
+        <v>0.1927218954396031</v>
       </c>
       <c r="Q30" s="3" t="s">
         <v>10</v>
@@ -2019,43 +2019,43 @@
         <v>0</v>
       </c>
       <c r="D31" s="3">
-        <v>88.54701052683701</v>
+        <v>84.78605159192998</v>
       </c>
       <c r="E31" s="3">
-        <v>88.05123936288551</v>
+        <v>84.26541131155901</v>
       </c>
       <c r="F31" s="3">
-        <v>87.76150118715653</v>
+        <v>83.95656635177043</v>
       </c>
       <c r="G31" s="3">
-        <v>87.5505183076092</v>
+        <v>83.73097235740535</v>
       </c>
       <c r="H31" s="3">
-        <v>87.35684672666534</v>
+        <v>83.52654047704635</v>
       </c>
       <c r="I31" s="3">
-        <v>87.1941673852325</v>
+        <v>83.35534459908941</v>
       </c>
       <c r="J31" s="3">
-        <v>87.08113764598683</v>
+        <v>83.2348957086986</v>
       </c>
       <c r="K31" s="3">
-        <v>86.95958484166007</v>
+        <v>83.10798360436492</v>
       </c>
       <c r="L31" s="3">
-        <v>86.86497278260579</v>
+        <v>83.00866052032237</v>
       </c>
       <c r="M31" s="3">
-        <v>86.78850676302474</v>
+        <v>82.92816073160928</v>
       </c>
       <c r="N31" s="3">
-        <v>86.72648755045829</v>
+        <v>82.86266311563267</v>
       </c>
       <c r="O31" s="3">
-        <v>86.66443563837474</v>
+        <v>82.79787064460915</v>
       </c>
       <c r="P31" s="3">
-        <v>86.61872269025483</v>
+        <v>82.74956858314088</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>10</v>
@@ -2070,43 +2070,43 @@
         <v>0</v>
       </c>
       <c r="D32" s="3">
-        <v>3.834932481701386</v>
+        <v>3.279911459108935</v>
       </c>
       <c r="E32" s="3">
-        <v>3.826785052013182</v>
+        <v>3.272943188318215</v>
       </c>
       <c r="F32" s="3">
-        <v>3.83054730622662</v>
+        <v>3.276160940068897</v>
       </c>
       <c r="G32" s="3">
-        <v>3.832740002790406</v>
+        <v>3.278036292665123</v>
       </c>
       <c r="H32" s="3">
-        <v>3.830875554143728</v>
+        <v>3.27644168141438</v>
       </c>
       <c r="I32" s="3">
-        <v>3.829940369605696</v>
+        <v>3.275641843999429</v>
       </c>
       <c r="J32" s="3">
-        <v>3.831922241453604</v>
+        <v>3.277336884059575</v>
       </c>
       <c r="K32" s="3">
-        <v>3.829395390271178</v>
+        <v>3.27517573827976</v>
       </c>
       <c r="L32" s="3">
-        <v>3.829517168899435</v>
+        <v>3.275279892165182</v>
       </c>
       <c r="M32" s="3">
-        <v>3.829778137181842</v>
+        <v>3.275503091103888</v>
       </c>
       <c r="N32" s="3">
-        <v>3.830135714143359</v>
+        <v>3.275808916768145</v>
       </c>
       <c r="O32" s="3">
-        <v>3.829236673287265</v>
+        <v>3.275039992042565</v>
       </c>
       <c r="P32" s="3">
-        <v>3.829850362781766</v>
+        <v>3.275564863657633</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>10</v>
@@ -2922,46 +2922,46 @@
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <v>1202773.782078071</v>
+        <v>1207475.917243316</v>
       </c>
       <c r="E50" s="3">
-        <v>1222891.212844888</v>
+        <v>1233928.549346028</v>
       </c>
       <c r="F50" s="3">
-        <v>1240203.560118007</v>
+        <v>1257416.750767502</v>
       </c>
       <c r="G50" s="3">
-        <v>1255921.514483477</v>
+        <v>1278469.291734265</v>
       </c>
       <c r="H50" s="3">
-        <v>1272537.109590847</v>
+        <v>1299376.934416618</v>
       </c>
       <c r="I50" s="3">
-        <v>1291002.829960208</v>
+        <v>1321212.040062677</v>
       </c>
       <c r="J50" s="3">
-        <v>1311764.667946387</v>
+        <v>1344634.475427181</v>
       </c>
       <c r="K50" s="3">
-        <v>1334417.869376142</v>
+        <v>1369423.060933583</v>
       </c>
       <c r="L50" s="3">
-        <v>1358589.140459171</v>
+        <v>1395351.223570867</v>
       </c>
       <c r="M50" s="3">
-        <v>1384498.326019652</v>
+        <v>1422763.664535746</v>
       </c>
       <c r="N50" s="3">
-        <v>1411690.828011885</v>
+        <v>1451279.478405211</v>
       </c>
       <c r="O50" s="3">
-        <v>1439682.667045575</v>
+        <v>1480463.167282416</v>
       </c>
       <c r="P50" s="3">
-        <v>1468473.244180957</v>
+        <v>1510358.620992411</v>
       </c>
       <c r="Q50" s="3">
-        <v>17194446.75211526</v>
+        <v>17572153.17471782</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -2973,46 +2973,46 @@
         <v>0</v>
       </c>
       <c r="D51" s="3">
-        <v>189630.2055354884</v>
+        <v>181944.2976825268</v>
       </c>
       <c r="E51" s="3">
-        <v>191919.7491069153</v>
+        <v>183960.4442225396</v>
       </c>
       <c r="F51" s="3">
-        <v>194607.8726979233</v>
+        <v>186450.8283507818</v>
       </c>
       <c r="G51" s="3">
-        <v>197510.4401376233</v>
+        <v>189177.2932147224</v>
       </c>
       <c r="H51" s="3">
-        <v>201107.9833890458</v>
+        <v>192578.4193868093</v>
       </c>
       <c r="I51" s="3">
-        <v>204979.3070895274</v>
+        <v>196255.1041920758</v>
       </c>
       <c r="J51" s="3">
-        <v>208472.3249300607</v>
+        <v>199586.5802339425</v>
       </c>
       <c r="K51" s="3">
-        <v>212976.1165691018</v>
+        <v>203874.6692093689</v>
       </c>
       <c r="L51" s="3">
-        <v>217269.0922813363</v>
+        <v>207976.0031116228</v>
       </c>
       <c r="M51" s="3">
-        <v>221543.617997744</v>
+        <v>212062.762779656</v>
       </c>
       <c r="N51" s="3">
-        <v>225849.3580890514</v>
+        <v>216181.5065131954</v>
       </c>
       <c r="O51" s="3">
-        <v>230707.4611547562</v>
+        <v>220822.9569662614</v>
       </c>
       <c r="P51" s="3">
-        <v>235205.1723662026</v>
+        <v>225130.3468911372</v>
       </c>
       <c r="Q51" s="3">
-        <v>2731778.701344776</v>
+        <v>2616001.21275464</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3024,46 +3024,46 @@
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <v>734324.6477642173</v>
+        <v>729684.7417880984</v>
       </c>
       <c r="E52" s="3">
-        <v>723906.4364808706</v>
+        <v>713484.6979156518</v>
       </c>
       <c r="F52" s="3">
-        <v>717104.7643997379</v>
+        <v>701746.3417120023</v>
       </c>
       <c r="G52" s="3">
-        <v>713919.590961196</v>
+        <v>694653.6065837626</v>
       </c>
       <c r="H52" s="3">
-        <v>714582.5995365495</v>
+        <v>692300.2345308383</v>
       </c>
       <c r="I52" s="3">
-        <v>718679.5448807342</v>
+        <v>694064.5120171667</v>
       </c>
       <c r="J52" s="3">
-        <v>725760.8129181426</v>
+        <v>699303.667193427</v>
       </c>
       <c r="K52" s="3">
-        <v>735105.7960705017</v>
+        <v>707158.097977245</v>
       </c>
       <c r="L52" s="3">
-        <v>746153.7553825446</v>
+        <v>716963.9228301083</v>
       </c>
       <c r="M52" s="3">
-        <v>758770.4440408355</v>
+        <v>728500.469576795</v>
       </c>
       <c r="N52" s="3">
-        <v>772527.423072994</v>
+        <v>741291.3249668274</v>
       </c>
       <c r="O52" s="3">
-        <v>787032.6466271218</v>
+        <v>754913.8527292009</v>
       </c>
       <c r="P52" s="3">
-        <v>802194.9321147291</v>
+        <v>769247.2366890948</v>
       </c>
       <c r="Q52" s="3">
-        <v>9650063.394250175</v>
+        <v>9343312.706510218</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3075,46 +3075,46 @@
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <v>54990.08614886744</v>
+        <v>54767.94042312047</v>
       </c>
       <c r="E53" s="3">
-        <v>55265.42626930533</v>
+        <v>55057.80442524136</v>
       </c>
       <c r="F53" s="3">
-        <v>55563.80188377382</v>
+        <v>55389.99928985961</v>
       </c>
       <c r="G53" s="3">
-        <v>55919.58076017956</v>
+        <v>55784.67477065574</v>
       </c>
       <c r="H53" s="3">
-        <v>56410.08340599631</v>
+        <v>56309.24622717864</v>
       </c>
       <c r="I53" s="3">
-        <v>57050.58928438732</v>
+        <v>56976.45449583266</v>
       </c>
       <c r="J53" s="3">
-        <v>57840.99558243679</v>
+        <v>57786.78288849849</v>
       </c>
       <c r="K53" s="3">
-        <v>58749.35568415918</v>
+        <v>58709.67524803444</v>
       </c>
       <c r="L53" s="3">
-        <v>59749.1543953065</v>
+        <v>59719.95639782791</v>
       </c>
       <c r="M53" s="3">
-        <v>60842.82166053844</v>
+        <v>60821.13292058182</v>
       </c>
       <c r="N53" s="3">
-        <v>62005.28994536691</v>
+        <v>61988.96646630998</v>
       </c>
       <c r="O53" s="3">
-        <v>63211.69076464186</v>
+        <v>63199.19562914449</v>
       </c>
       <c r="P53" s="3">
-        <v>64459.41863685135</v>
+        <v>64449.64552610843</v>
       </c>
       <c r="Q53" s="3">
-        <v>762058.2944218108</v>
+        <v>760961.474708394</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3126,46 +3126,46 @@
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <v>436575.1717246821</v>
+        <v>414776.6535110013</v>
       </c>
       <c r="E54" s="3">
-        <v>438761.1413926955</v>
+        <v>416971.8943735234</v>
       </c>
       <c r="F54" s="3">
-        <v>441129.9935667473</v>
+        <v>419487.7215745354</v>
       </c>
       <c r="G54" s="3">
-        <v>443954.5795046992</v>
+        <v>422476.7362039472</v>
       </c>
       <c r="H54" s="3">
-        <v>447848.7591982739</v>
+        <v>426449.4982173259</v>
       </c>
       <c r="I54" s="3">
-        <v>452933.8387722943</v>
+        <v>431502.4983982558</v>
       </c>
       <c r="J54" s="3">
-        <v>459209.001978423</v>
+        <v>437639.397035638</v>
       </c>
       <c r="K54" s="3">
-        <v>466420.6194747791</v>
+        <v>444628.7817282493</v>
       </c>
       <c r="L54" s="3">
-        <v>474358.1828535238</v>
+        <v>452279.9921111702</v>
       </c>
       <c r="M54" s="3">
-        <v>483040.9838376086</v>
+        <v>460619.5847543132</v>
       </c>
       <c r="N54" s="3">
-        <v>492270.0072237438</v>
+        <v>469463.9942064992</v>
       </c>
       <c r="O54" s="3">
-        <v>501847.8180934691</v>
+        <v>478629.4804063421</v>
       </c>
       <c r="P54" s="3">
-        <v>511753.7311084237</v>
+        <v>488099.5722089346</v>
       </c>
       <c r="Q54" s="3">
-        <v>6050103.828729363</v>
+        <v>5763025.804729735</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3177,43 +3177,43 @@
         <v>0.3411657413950535</v>
       </c>
       <c r="D55" s="3">
-        <v>0.3238888868555407</v>
+        <v>0.3168039999748352</v>
       </c>
       <c r="E55" s="3">
-        <v>0.3198022815072896</v>
+        <v>0.3103487823960027</v>
       </c>
       <c r="F55" s="3">
-        <v>0.3166881354517176</v>
+        <v>0.3055849304977664</v>
       </c>
       <c r="G55" s="3">
-        <v>0.3144581023966179</v>
+        <v>0.3021884925929842</v>
       </c>
       <c r="H55" s="3">
-        <v>0.3127814135998897</v>
+        <v>0.2996913320343552</v>
       </c>
       <c r="I55" s="3">
-        <v>0.3115852905347873</v>
+        <v>0.2979185417022118</v>
       </c>
       <c r="J55" s="3">
-        <v>0.3108562194286555</v>
+        <v>0.2967823193814947</v>
       </c>
       <c r="K55" s="3">
-        <v>0.310185179180672</v>
+        <v>0.2958328841752377</v>
       </c>
       <c r="L55" s="3">
-        <v>0.3097813658376032</v>
+        <v>0.29523175095513</v>
       </c>
       <c r="M55" s="3">
-        <v>0.3095300175324512</v>
+        <v>0.2948421714825943</v>
       </c>
       <c r="N55" s="3">
-        <v>0.3093714353969286</v>
+        <v>0.2945870702010397</v>
       </c>
       <c r="O55" s="3">
-        <v>0.3091832097710829</v>
+        <v>0.2943347524230241</v>
       </c>
       <c r="P55" s="3">
-        <v>0.3091316687937602</v>
+        <v>0.2942352108355556</v>
       </c>
       <c r="Q55" s="3" t="s">
         <v>10</v>
@@ -3228,43 +3228,43 @@
         <v>0.04535037632743646</v>
       </c>
       <c r="D56" s="3">
-        <v>0.04377270735130956</v>
+        <v>0.04315526495094595</v>
       </c>
       <c r="E56" s="3">
-        <v>0.0438361069092349</v>
+        <v>0.04321974879608041</v>
       </c>
       <c r="F56" s="3">
-        <v>0.04393634791421726</v>
+        <v>0.04331284639555464</v>
       </c>
       <c r="G56" s="3">
-        <v>0.04402528937343721</v>
+        <v>0.04339357972596513</v>
       </c>
       <c r="H56" s="3">
-        <v>0.0441210617908661</v>
+        <v>0.04348190199244045</v>
       </c>
       <c r="I56" s="3">
-        <v>0.04419768520768805</v>
+        <v>0.04355249247627089</v>
       </c>
       <c r="J56" s="3">
-        <v>0.04422366263617128</v>
+        <v>0.04357453605321386</v>
       </c>
       <c r="K56" s="3">
-        <v>0.04428408172542061</v>
+        <v>0.04363155227430793</v>
       </c>
       <c r="L56" s="3">
-        <v>0.04431191704062719</v>
+        <v>0.04365693954328985</v>
       </c>
       <c r="M56" s="3">
-        <v>0.04432282494486179</v>
+        <v>0.04366636926967422</v>
       </c>
       <c r="N56" s="3">
-        <v>0.04432467338694518</v>
+        <v>0.04366737616244312</v>
       </c>
       <c r="O56" s="3">
-        <v>0.04434669989812239</v>
+        <v>0.04368846522930439</v>
       </c>
       <c r="P56" s="3">
-        <v>0.04434187833607246</v>
+        <v>0.04368321574099905</v>
       </c>
       <c r="Q56" s="3" t="s">
         <v>10</v>
@@ -3279,43 +3279,43 @@
         <v>0.2195512735036556</v>
       </c>
       <c r="D57" s="3">
-        <v>0.2428612498816184</v>
+        <v>0.223266455303895</v>
       </c>
       <c r="E57" s="3">
-        <v>0.2424780096918431</v>
+        <v>0.2229574793860584</v>
       </c>
       <c r="F57" s="3">
-        <v>0.2424208334302095</v>
+        <v>0.2228908821856563</v>
       </c>
       <c r="G57" s="3">
-        <v>0.2424642386376209</v>
+        <v>0.2228999411823844</v>
       </c>
       <c r="H57" s="3">
-        <v>0.2424861423222177</v>
+        <v>0.2228864492610934</v>
       </c>
       <c r="I57" s="3">
-        <v>0.2425415554466802</v>
+        <v>0.2229055787036792</v>
       </c>
       <c r="J57" s="3">
-        <v>0.242634367366058</v>
+        <v>0.2229707401715261</v>
       </c>
       <c r="K57" s="3">
-        <v>0.2426028957023807</v>
+        <v>0.2229250340737731</v>
       </c>
       <c r="L57" s="3">
-        <v>0.242660817248618</v>
+        <v>0.2229623797688797</v>
       </c>
       <c r="M57" s="3">
-        <v>0.2426950737898408</v>
+        <v>0.2229858117747812</v>
       </c>
       <c r="N57" s="3">
-        <v>0.2427122745382285</v>
+        <v>0.2229985559481999</v>
       </c>
       <c r="O57" s="3">
-        <v>0.2426872439239548</v>
+        <v>0.2229711368825803</v>
       </c>
       <c r="P57" s="3">
-        <v>0.2427271624976484</v>
+        <v>0.2230047305551841</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>10</v>
@@ -3330,46 +3330,46 @@
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <v>8245.561003012306</v>
+        <v>7051.80963708421</v>
       </c>
       <c r="E58" s="3">
-        <v>8401.874955676047</v>
+        <v>7185.493232100025</v>
       </c>
       <c r="F58" s="3">
-        <v>8597.267396505722</v>
+        <v>7352.597725869793</v>
       </c>
       <c r="G58" s="3">
-        <v>8753.581349169463</v>
+        <v>7486.281320885607</v>
       </c>
       <c r="H58" s="3">
-        <v>8909.895301833201</v>
+        <v>7619.964915901422</v>
       </c>
       <c r="I58" s="3">
-        <v>9105.287742662877</v>
+        <v>7787.069409671189</v>
       </c>
       <c r="J58" s="3">
-        <v>9300.680183492554</v>
+        <v>7954.173903440957</v>
       </c>
       <c r="K58" s="3">
-        <v>9456.994136156292</v>
+        <v>8087.85749845677</v>
       </c>
       <c r="L58" s="3">
-        <v>9691.465065151906</v>
+        <v>8288.382890980492</v>
       </c>
       <c r="M58" s="3">
-        <v>9886.857505981581</v>
+        <v>8455.487384750262</v>
       </c>
       <c r="N58" s="3">
-        <v>10082.24994681126</v>
+        <v>8622.59187852003</v>
       </c>
       <c r="O58" s="3">
-        <v>10277.64238764094</v>
+        <v>8789.696372289798</v>
       </c>
       <c r="P58" s="3">
-        <v>10512.11331663654</v>
+        <v>8990.221764813519</v>
       </c>
       <c r="Q58" s="3">
-        <v>121221.4702907307</v>
+        <v>103671.6279347641</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3381,46 +3381,46 @@
         <v>0</v>
       </c>
       <c r="D59" s="3">
-        <v>667010.7514898125</v>
+        <v>230102.4453511795</v>
       </c>
       <c r="E59" s="3">
-        <v>682522.6294314361</v>
+        <v>235453.6650105093</v>
       </c>
       <c r="F59" s="3">
-        <v>694932.1317847349</v>
+        <v>239734.640737973</v>
       </c>
       <c r="G59" s="3">
-        <v>707341.6341380337</v>
+        <v>244015.6164654368</v>
       </c>
       <c r="H59" s="3">
-        <v>722853.5120796572</v>
+        <v>249366.8361247666</v>
       </c>
       <c r="I59" s="3">
-        <v>738365.3900212807</v>
+        <v>254718.0557840963</v>
       </c>
       <c r="J59" s="3">
-        <v>750774.8923745796</v>
+        <v>258999.0315115601</v>
       </c>
       <c r="K59" s="3">
-        <v>769389.1459045279</v>
+        <v>265420.4951027558</v>
       </c>
       <c r="L59" s="3">
-        <v>784901.0238461515</v>
+        <v>270771.7147620856</v>
       </c>
       <c r="M59" s="3">
-        <v>800412.901787775</v>
+        <v>276122.9344214154</v>
       </c>
       <c r="N59" s="3">
-        <v>815924.7797293987</v>
+        <v>281474.1540807451</v>
       </c>
       <c r="O59" s="3">
-        <v>834539.0332593468</v>
+        <v>287895.6176719409</v>
       </c>
       <c r="P59" s="3">
-        <v>850050.9112009703</v>
+        <v>293246.8373312706</v>
       </c>
       <c r="Q59" s="3">
-        <v>9819018.737047704</v>
+        <v>3387322.044355736</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3432,43 +3432,43 @@
         <v>0.18698022</v>
       </c>
       <c r="D60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="E60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="F60" s="3">
-        <v>0.2638607666377226</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="G60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="H60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="I60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="J60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="K60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="L60" s="3">
-        <v>0.2638607666377226</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="M60" s="3">
-        <v>0.2638607666377226</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="N60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791736</v>
       </c>
       <c r="O60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="P60" s="3">
-        <v>0.2638607666377225</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="Q60" s="3" t="s">
         <v>10</v>
@@ -3483,46 +3483,46 @@
         <v>0</v>
       </c>
       <c r="D61" s="3">
-        <v>2298560.887151937</v>
+        <v>2181680.445705114</v>
       </c>
       <c r="E61" s="3">
-        <v>2385527.014139843</v>
+        <v>2264226.722129289</v>
       </c>
       <c r="F61" s="3">
-        <v>2476160.763780803</v>
+        <v>2350252.329113401</v>
       </c>
       <c r="G61" s="3">
-        <v>2569083.386839511</v>
+        <v>2438448.660593645</v>
       </c>
       <c r="H61" s="3">
-        <v>2660845.677839593</v>
+        <v>2525542.316981544</v>
       </c>
       <c r="I61" s="3">
-        <v>2754421.836130742</v>
+        <v>2614356.684027964</v>
       </c>
       <c r="J61" s="3">
-        <v>2853326.130262354</v>
+        <v>2708228.237079227</v>
       </c>
       <c r="K61" s="3">
-        <v>2950976.140734175</v>
+        <v>2800910.731312267</v>
       </c>
       <c r="L61" s="3">
-        <v>3052785.571094043</v>
+        <v>2897541.223989068</v>
       </c>
       <c r="M61" s="3">
-        <v>3157910.053548162</v>
+        <v>2997318.915439798</v>
       </c>
       <c r="N61" s="3">
-        <v>3265914.573142322</v>
+        <v>3099830.174666676</v>
       </c>
       <c r="O61" s="3">
-        <v>3373636.501008138</v>
+        <v>3202072.240260701</v>
       </c>
       <c r="P61" s="3">
-        <v>3485347.358550946</v>
+        <v>3308098.147032259</v>
       </c>
       <c r="Q61" s="3">
-        <v>37284495.89422256</v>
+        <v>35388506.82833096</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3534,43 +3534,43 @@
         <v>0.1883766607292806</v>
       </c>
       <c r="D62" s="3">
-        <v>0.2031450190815312</v>
+        <v>0.1928152167949394</v>
       </c>
       <c r="E62" s="3">
-        <v>0.2031608121227274</v>
+        <v>0.192830404758016</v>
       </c>
       <c r="F62" s="3">
-        <v>0.2031636918874101</v>
+        <v>0.1928331742566661</v>
       </c>
       <c r="G62" s="3">
-        <v>0.2031552187979132</v>
+        <v>0.1928250261194526</v>
       </c>
       <c r="H62" s="3">
-        <v>0.2031391622547603</v>
+        <v>0.1928095848561666</v>
       </c>
       <c r="I62" s="3">
-        <v>0.2031188137434778</v>
+        <v>0.1927900154567634</v>
       </c>
       <c r="J62" s="3">
-        <v>0.2030999138329048</v>
+        <v>0.1927718376658389</v>
       </c>
       <c r="K62" s="3">
-        <v>0.2030904458621932</v>
+        <v>0.1927627273532914</v>
       </c>
       <c r="L62" s="3">
-        <v>0.2030822052941243</v>
+        <v>0.1927547965602622</v>
       </c>
       <c r="M62" s="3">
-        <v>0.2030783930155837</v>
+        <v>0.1927511228569712</v>
       </c>
       <c r="N62" s="3">
-        <v>0.203074777858854</v>
+        <v>0.1927476392975376</v>
       </c>
       <c r="O62" s="3">
-        <v>0.203066517607251</v>
+        <v>0.1927396916538818</v>
       </c>
       <c r="P62" s="3">
-        <v>0.2030480110778896</v>
+        <v>0.1927218954396031</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>10</v>
@@ -3585,43 +3585,43 @@
         <v>0</v>
       </c>
       <c r="D63" s="3">
-        <v>88.20009559790158</v>
+        <v>84.62525473605899</v>
       </c>
       <c r="E63" s="3">
-        <v>87.71263325112729</v>
+        <v>84.11603262185436</v>
       </c>
       <c r="F63" s="3">
-        <v>87.42910885285691</v>
+        <v>83.81723372622888</v>
       </c>
       <c r="G63" s="3">
-        <v>87.22302902795381</v>
+        <v>83.60009734730222</v>
       </c>
       <c r="H63" s="3">
-        <v>87.03359382741037</v>
+        <v>83.40279311226607</v>
       </c>
       <c r="I63" s="3">
-        <v>86.87448880386771</v>
+        <v>83.23758372970954</v>
       </c>
       <c r="J63" s="3">
-        <v>86.7642426804115</v>
+        <v>83.12206045521238</v>
       </c>
       <c r="K63" s="3">
-        <v>86.64523806578387</v>
+        <v>82.99933097904584</v>
       </c>
       <c r="L63" s="3">
-        <v>86.55274115835422</v>
+        <v>82.90355257517325</v>
       </c>
       <c r="M63" s="3">
-        <v>86.47802923843858</v>
+        <v>82.82604503535592</v>
       </c>
       <c r="N63" s="3">
-        <v>86.41747016871919</v>
+        <v>82.763078142534</v>
       </c>
       <c r="O63" s="3">
-        <v>86.3567460732817</v>
+        <v>82.7004796217054</v>
       </c>
       <c r="P63" s="3">
-        <v>86.3121232652378</v>
+        <v>82.65406675370112</v>
       </c>
       <c r="Q63" s="3" t="s">
         <v>10</v>
@@ -3636,43 +3636,43 @@
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <v>3.835144652563863</v>
+        <v>3.279911459108935</v>
       </c>
       <c r="E64" s="3">
-        <v>3.826996772112265</v>
+        <v>3.272943188318215</v>
       </c>
       <c r="F64" s="3">
-        <v>3.830759234475581</v>
+        <v>3.276160940068897</v>
       </c>
       <c r="G64" s="3">
-        <v>3.832952052352147</v>
+        <v>3.278036292665123</v>
       </c>
       <c r="H64" s="3">
-        <v>3.83108750055328</v>
+        <v>3.27644168141438</v>
       </c>
       <c r="I64" s="3">
-        <v>3.830152264275377</v>
+        <v>3.275641843999429</v>
       </c>
       <c r="J64" s="3">
-        <v>3.832134245772011</v>
+        <v>3.277336884059575</v>
       </c>
       <c r="K64" s="3">
-        <v>3.829607254789419</v>
+        <v>3.27517573827976</v>
       </c>
       <c r="L64" s="3">
-        <v>3.829729040155181</v>
+        <v>3.275279892165182</v>
       </c>
       <c r="M64" s="3">
-        <v>3.829990022875877</v>
+        <v>3.275503091103888</v>
       </c>
       <c r="N64" s="3">
-        <v>3.830347619620641</v>
+        <v>3.275808916768145</v>
       </c>
       <c r="O64" s="3">
-        <v>3.829448529024356</v>
+        <v>3.275039992042565</v>
       </c>
       <c r="P64" s="3">
-        <v>3.830062252471744</v>
+        <v>3.275564863657633</v>
       </c>
       <c r="Q64" s="3" t="s">
         <v>10</v>
@@ -4488,46 +4488,46 @@
         <v>0</v>
       </c>
       <c r="D82" s="3">
-        <v>1567052.07283324</v>
+        <v>1576837.038135141</v>
       </c>
       <c r="E82" s="3">
-        <v>1580508.286865458</v>
+        <v>1597251.636307265</v>
       </c>
       <c r="F82" s="3">
-        <v>1593146.952211325</v>
+        <v>1616423.744805106</v>
       </c>
       <c r="G82" s="3">
-        <v>1606244.6552062</v>
+        <v>1635070.355709737</v>
       </c>
       <c r="H82" s="3">
-        <v>1622381.948862379</v>
+        <v>1655655.930302489</v>
       </c>
       <c r="I82" s="3">
-        <v>1642255.668538264</v>
+        <v>1679034.883373962</v>
       </c>
       <c r="J82" s="3">
-        <v>1666040.174083454</v>
+        <v>1705611.859583582</v>
       </c>
       <c r="K82" s="3">
-        <v>1692936.471235659</v>
+        <v>1734776.326627156</v>
       </c>
       <c r="L82" s="3">
-        <v>1722265.675979576</v>
+        <v>1765997.583576386</v>
       </c>
       <c r="M82" s="3">
-        <v>1754158.548412133</v>
+        <v>1799533.98893834</v>
       </c>
       <c r="N82" s="3">
-        <v>1787934.084471958</v>
+        <v>1834777.439291843</v>
       </c>
       <c r="O82" s="3">
-        <v>1822904.713021655</v>
+        <v>1871087.311592716</v>
       </c>
       <c r="P82" s="3">
-        <v>1859016.683743952</v>
+        <v>1908454.615445694</v>
       </c>
       <c r="Q82" s="3">
-        <v>21916845.93546526</v>
+        <v>22380512.71368942</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -4539,46 +4539,46 @@
         <v>0</v>
       </c>
       <c r="D83" s="3">
-        <v>191588.2461796054</v>
+        <v>182154.3034237357</v>
       </c>
       <c r="E83" s="3">
-        <v>193962.7572229839</v>
+        <v>184299.9297632113</v>
       </c>
       <c r="F83" s="3">
-        <v>196745.8501645628</v>
+        <v>186885.9766069888</v>
       </c>
       <c r="G83" s="3">
-        <v>199730.2651432785</v>
+        <v>189682.653585484</v>
       </c>
       <c r="H83" s="3">
-        <v>203399.5151745021</v>
+        <v>193137.0753590487</v>
       </c>
       <c r="I83" s="3">
-        <v>207337.446228291</v>
+        <v>196855.9394414913</v>
       </c>
       <c r="J83" s="3">
-        <v>210891.4349509392</v>
+        <v>200220.647776568</v>
       </c>
       <c r="K83" s="3">
-        <v>215453.38493763</v>
+        <v>204536.5282160254</v>
       </c>
       <c r="L83" s="3">
-        <v>219805.5975712116</v>
+        <v>208662.7790742323</v>
       </c>
       <c r="M83" s="3">
-        <v>224137.1436501601</v>
+        <v>212771.0246951251</v>
       </c>
       <c r="N83" s="3">
-        <v>228498.6630943893</v>
+        <v>216909.1065295397</v>
       </c>
       <c r="O83" s="3">
-        <v>233413.4129977578</v>
+        <v>221569.226415305</v>
       </c>
       <c r="P83" s="3">
-        <v>237968.8321144097</v>
+        <v>225894.6932305151</v>
       </c>
       <c r="Q83" s="3">
-        <v>2762932.549429722</v>
+        <v>2623579.88411727</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -4590,46 +4590,46 @@
         <v>0</v>
       </c>
       <c r="D84" s="3">
-        <v>369929.8560739174</v>
+        <v>360362.706097559</v>
       </c>
       <c r="E84" s="3">
-        <v>365856.2398294364</v>
+        <v>350197.5662752778</v>
       </c>
       <c r="F84" s="3">
-        <v>363347.0763288146</v>
+        <v>342696.4041502584</v>
       </c>
       <c r="G84" s="3">
-        <v>362430.0575653994</v>
+        <v>337905.7960844567</v>
       </c>
       <c r="H84" s="3">
-        <v>363278.7643566147</v>
+        <v>335773.1572912528</v>
       </c>
       <c r="I84" s="3">
-        <v>365733.1853457399</v>
+        <v>335904.3945905367</v>
       </c>
       <c r="J84" s="3">
-        <v>369604.5171726831</v>
+        <v>337913.5881040999</v>
       </c>
       <c r="K84" s="3">
-        <v>374555.1980101347</v>
+        <v>341329.303134758</v>
       </c>
       <c r="L84" s="3">
-        <v>380321.0066957041</v>
+        <v>345789.8761951277</v>
       </c>
       <c r="M84" s="3">
-        <v>386849.1424270514</v>
+        <v>351158.7878268213</v>
       </c>
       <c r="N84" s="3">
-        <v>393932.0516458272</v>
+        <v>357184.9965951329</v>
       </c>
       <c r="O84" s="3">
-        <v>401377.5651781298</v>
+        <v>363649.5868753261</v>
       </c>
       <c r="P84" s="3">
-        <v>409144.7994636284</v>
+        <v>370483.4154567082</v>
       </c>
       <c r="Q84" s="3">
-        <v>4906359.460093081</v>
+        <v>4530349.578677315</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -4641,46 +4641,46 @@
         <v>0</v>
       </c>
       <c r="D85" s="3">
-        <v>55958.93575760391</v>
+        <v>54769.045450711</v>
       </c>
       <c r="E85" s="3">
-        <v>56229.99672054209</v>
+        <v>55058.82096398933</v>
       </c>
       <c r="F85" s="3">
-        <v>56522.63555963253</v>
+        <v>55388.78517870126</v>
       </c>
       <c r="G85" s="3">
-        <v>56874.53255785415</v>
+        <v>55780.52591246105</v>
       </c>
       <c r="H85" s="3">
-        <v>57365.2539701859</v>
+        <v>56302.23240272533</v>
       </c>
       <c r="I85" s="3">
-        <v>58010.3085111774</v>
+        <v>56966.91898902304</v>
       </c>
       <c r="J85" s="3">
-        <v>58809.27891133136</v>
+        <v>57775.11506353312</v>
       </c>
       <c r="K85" s="3">
-        <v>59729.33034227192</v>
+        <v>58696.23095678492</v>
       </c>
       <c r="L85" s="3">
-        <v>60743.21672531158</v>
+        <v>59705.03749590325</v>
       </c>
       <c r="M85" s="3">
-        <v>61853.19028546724</v>
+        <v>60804.97934807574</v>
       </c>
       <c r="N85" s="3">
-        <v>63033.58080970451</v>
+        <v>61971.76653298384</v>
       </c>
       <c r="O85" s="3">
-        <v>64258.97281487988</v>
+        <v>63181.09793631836</v>
       </c>
       <c r="P85" s="3">
-        <v>65526.63235133789</v>
+        <v>64430.76454322224</v>
       </c>
       <c r="Q85" s="3">
-        <v>774915.8653173003</v>
+        <v>760831.3207744325</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -4692,46 +4692,46 @@
         <v>0</v>
       </c>
       <c r="D86" s="3">
-        <v>436548.9152294122</v>
+        <v>414785.0222691196</v>
       </c>
       <c r="E86" s="3">
-        <v>438663.5260190861</v>
+        <v>416979.5929748727</v>
       </c>
       <c r="F86" s="3">
-        <v>440946.4709326975</v>
+        <v>419478.5266886339</v>
       </c>
       <c r="G86" s="3">
-        <v>443691.7027847036</v>
+        <v>422445.3154584419</v>
       </c>
       <c r="H86" s="3">
-        <v>447519.9367804538</v>
+        <v>426396.3800863067</v>
       </c>
       <c r="I86" s="3">
-        <v>452552.1600763621</v>
+        <v>431430.2826900609</v>
       </c>
       <c r="J86" s="3">
-        <v>458785.1174542233</v>
+        <v>437551.0325407255</v>
       </c>
       <c r="K86" s="3">
-        <v>465962.6566388886</v>
+        <v>444526.9634365584</v>
       </c>
       <c r="L86" s="3">
-        <v>473872.2245155738</v>
+        <v>452167.0060801717</v>
       </c>
       <c r="M86" s="3">
-        <v>482531.3912252167</v>
+        <v>460497.2481337546</v>
       </c>
       <c r="N86" s="3">
-        <v>491739.8973543354</v>
+        <v>469333.7331316714</v>
       </c>
       <c r="O86" s="3">
-        <v>501299.4706976761</v>
+        <v>478492.4202867044</v>
       </c>
       <c r="P86" s="3">
-        <v>511188.7830662688</v>
+        <v>487956.5799613529</v>
       </c>
       <c r="Q86" s="3">
-        <v>6045302.252774898</v>
+        <v>5762040.103738375</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -4743,43 +4743,43 @@
         <v>0.1705828706975267</v>
       </c>
       <c r="D87" s="3">
-        <v>0.1636900563694614</v>
+        <v>0.1553585883328952</v>
       </c>
       <c r="E87" s="3">
-        <v>0.1619956863346528</v>
+        <v>0.151532425687215</v>
       </c>
       <c r="F87" s="3">
-        <v>0.1606892125012926</v>
+        <v>0.1487320285642094</v>
       </c>
       <c r="G87" s="3">
-        <v>0.1597516106462538</v>
+        <v>0.1467391979061521</v>
       </c>
       <c r="H87" s="3">
-        <v>0.1590368690838042</v>
+        <v>0.1452859479500886</v>
       </c>
       <c r="I87" s="3">
-        <v>0.1585252670972529</v>
+        <v>0.1442562424361793</v>
       </c>
       <c r="J87" s="3">
-        <v>0.1582227725367635</v>
+        <v>0.1435848054998769</v>
       </c>
       <c r="K87" s="3">
-        <v>0.1579282187820359</v>
+        <v>0.1430425198525855</v>
       </c>
       <c r="L87" s="3">
-        <v>0.157755800736031</v>
+        <v>0.1426928392306933</v>
       </c>
       <c r="M87" s="3">
-        <v>0.1576511191497875</v>
+        <v>0.1424629864048676</v>
       </c>
       <c r="N87" s="3">
-        <v>0.1575867314011275</v>
+        <v>0.1423106022603343</v>
       </c>
       <c r="O87" s="3">
-        <v>0.1575017891733724</v>
+        <v>0.1421694614216414</v>
       </c>
       <c r="P87" s="3">
-        <v>0.1574836024857222</v>
+        <v>0.1421068840034252</v>
       </c>
       <c r="Q87" s="3" t="s">
         <v>10</v>
@@ -4794,43 +4794,43 @@
         <v>0.04535037632743646</v>
       </c>
       <c r="D88" s="3">
-        <v>0.0443245289993091</v>
+        <v>0.04315425780512899</v>
       </c>
       <c r="E88" s="3">
-        <v>0.04438817984072309</v>
+        <v>0.04321876649408226</v>
       </c>
       <c r="F88" s="3">
-        <v>0.04448969902416348</v>
+        <v>0.04331223707082377</v>
       </c>
       <c r="G88" s="3">
-        <v>0.04458011549262602</v>
+        <v>0.04339340980962809</v>
       </c>
       <c r="H88" s="3">
-        <v>0.04467703052166705</v>
+        <v>0.04348213665463766</v>
       </c>
       <c r="I88" s="3">
-        <v>0.04475463861471782</v>
+        <v>0.04355306410645061</v>
       </c>
       <c r="J88" s="3">
-        <v>0.04478152738989415</v>
+        <v>0.04357537272555443</v>
       </c>
       <c r="K88" s="3">
-        <v>0.04484229454023072</v>
+        <v>0.04363260132839517</v>
       </c>
       <c r="L88" s="3">
-        <v>0.04487062010582984</v>
+        <v>0.04365814680430467</v>
       </c>
       <c r="M88" s="3">
-        <v>0.0448818758221239</v>
+        <v>0.04366769555356854</v>
       </c>
       <c r="N88" s="3">
-        <v>0.04488395334449568</v>
+        <v>0.0436687915819861</v>
       </c>
       <c r="O88" s="3">
-        <v>0.04490601785858397</v>
+        <v>0.04368995028612579</v>
       </c>
       <c r="P88" s="3">
-        <v>0.04490140399483521</v>
+        <v>0.04368474831155469</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>10</v>
@@ -4845,43 +4845,43 @@
         <v>0.2195512735036556</v>
       </c>
       <c r="D89" s="3">
-        <v>0.2428547454411475</v>
+        <v>0.2232646906350323</v>
       </c>
       <c r="E89" s="3">
-        <v>0.2424687008014012</v>
+        <v>0.2229543220710082</v>
       </c>
       <c r="F89" s="3">
-        <v>0.2424115974316984</v>
+        <v>0.2228872996161063</v>
       </c>
       <c r="G89" s="3">
-        <v>0.2424559092464114</v>
+        <v>0.2228963544782167</v>
       </c>
       <c r="H89" s="3">
-        <v>0.242478763580491</v>
+        <v>0.2228829887364478</v>
       </c>
       <c r="I89" s="3">
-        <v>0.2425349799165775</v>
+        <v>0.2229022656156744</v>
       </c>
       <c r="J89" s="3">
-        <v>0.2426284380963205</v>
+        <v>0.2229675644567498</v>
       </c>
       <c r="K89" s="3">
-        <v>0.2425973906439188</v>
+        <v>0.2229219591901204</v>
       </c>
       <c r="L89" s="3">
-        <v>0.2426556618290147</v>
+        <v>0.2229593919670039</v>
       </c>
       <c r="M89" s="3">
-        <v>0.2426901667208834</v>
+        <v>0.2229828898780949</v>
       </c>
       <c r="N89" s="3">
-        <v>0.2427075480660897</v>
+        <v>0.2229956847352148</v>
       </c>
       <c r="O89" s="3">
-        <v>0.2426826230559694</v>
+        <v>0.2229682978932464</v>
       </c>
       <c r="P89" s="3">
-        <v>0.2427226528652365</v>
+        <v>0.223001923804121</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>10</v>
@@ -4896,46 +4896,46 @@
         <v>0</v>
       </c>
       <c r="D90" s="3">
-        <v>8245.539985757328</v>
+        <v>7051.80963708421</v>
       </c>
       <c r="E90" s="3">
-        <v>8401.853539989695</v>
+        <v>7185.493232100025</v>
       </c>
       <c r="F90" s="3">
-        <v>8597.245482780152</v>
+        <v>7352.597725869793</v>
       </c>
       <c r="G90" s="3">
-        <v>8753.559037012519</v>
+        <v>7486.281320885607</v>
       </c>
       <c r="H90" s="3">
-        <v>8909.872591244886</v>
+        <v>7619.964915901422</v>
       </c>
       <c r="I90" s="3">
-        <v>9105.264534035345</v>
+        <v>7787.069409671189</v>
       </c>
       <c r="J90" s="3">
-        <v>9300.656476825801</v>
+        <v>7954.173903440957</v>
       </c>
       <c r="K90" s="3">
-        <v>9456.970031058167</v>
+        <v>8087.85749845677</v>
       </c>
       <c r="L90" s="3">
-        <v>9691.440362406716</v>
+        <v>8288.382890980492</v>
       </c>
       <c r="M90" s="3">
-        <v>9886.832305197175</v>
+        <v>8455.487384750262</v>
       </c>
       <c r="N90" s="3">
-        <v>10082.22424798763</v>
+        <v>8622.59187852003</v>
       </c>
       <c r="O90" s="3">
-        <v>10277.61619077809</v>
+        <v>8789.696372289798</v>
       </c>
       <c r="P90" s="3">
-        <v>10512.08652212664</v>
+        <v>8990.221764813519</v>
       </c>
       <c r="Q90" s="3">
-        <v>121221.1613072001</v>
+        <v>103671.6279347641</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -4947,46 +4947,46 @@
         <v>0</v>
       </c>
       <c r="D91" s="3">
-        <v>667003.0591928349</v>
+        <v>230102.4453511795</v>
       </c>
       <c r="E91" s="3">
-        <v>682514.758243831</v>
+        <v>235453.6650105093</v>
       </c>
       <c r="F91" s="3">
-        <v>694924.1174846278</v>
+        <v>239734.640737973</v>
       </c>
       <c r="G91" s="3">
-        <v>707333.4767254249</v>
+        <v>244015.6164654368</v>
       </c>
       <c r="H91" s="3">
-        <v>722845.175776421</v>
+        <v>249366.8361247666</v>
       </c>
       <c r="I91" s="3">
-        <v>738356.8748274171</v>
+        <v>254718.0557840963</v>
       </c>
       <c r="J91" s="3">
-        <v>750766.234068214</v>
+        <v>258999.0315115601</v>
       </c>
       <c r="K91" s="3">
-        <v>769380.2729294095</v>
+        <v>265420.4951027558</v>
       </c>
       <c r="L91" s="3">
-        <v>784891.9719804056</v>
+        <v>270771.7147620856</v>
       </c>
       <c r="M91" s="3">
-        <v>800403.6710314018</v>
+        <v>276122.9344214154</v>
       </c>
       <c r="N91" s="3">
-        <v>815915.3700823982</v>
+        <v>281474.1540807451</v>
       </c>
       <c r="O91" s="3">
-        <v>834529.4089435934</v>
+        <v>287895.6176719409</v>
       </c>
       <c r="P91" s="3">
-        <v>850041.1079945895</v>
+        <v>293246.8373312706</v>
       </c>
       <c r="Q91" s="3">
-        <v>9818905.499280568</v>
+        <v>3387322.044355736</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -4998,43 +4998,43 @@
         <v>0.18698022</v>
       </c>
       <c r="D92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="E92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="F92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="G92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="H92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="I92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="J92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="K92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="L92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="M92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.0910255306979174</v>
       </c>
       <c r="N92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791736</v>
       </c>
       <c r="O92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791737</v>
       </c>
       <c r="P92" s="3">
-        <v>0.2638577236652169</v>
+        <v>0.09102553069791738</v>
       </c>
       <c r="Q92" s="3" t="s">
         <v>10</v>
@@ -5049,46 +5049,46 @@
         <v>0</v>
       </c>
       <c r="D93" s="3">
-        <v>2298560.887151937</v>
+        <v>2181680.445705114</v>
       </c>
       <c r="E93" s="3">
-        <v>2385527.014139843</v>
+        <v>2264226.722129289</v>
       </c>
       <c r="F93" s="3">
-        <v>2476160.763780803</v>
+        <v>2350252.329113401</v>
       </c>
       <c r="G93" s="3">
-        <v>2569083.386839511</v>
+        <v>2438448.660593645</v>
       </c>
       <c r="H93" s="3">
-        <v>2660845.677839593</v>
+        <v>2525542.316981544</v>
       </c>
       <c r="I93" s="3">
-        <v>2754421.836130742</v>
+        <v>2614356.684027964</v>
       </c>
       <c r="J93" s="3">
-        <v>2853326.130262354</v>
+        <v>2708228.237079227</v>
       </c>
       <c r="K93" s="3">
-        <v>2950976.140734175</v>
+        <v>2800910.731312267</v>
       </c>
       <c r="L93" s="3">
-        <v>3052785.571094043</v>
+        <v>2897541.223989068</v>
       </c>
       <c r="M93" s="3">
-        <v>3157910.053548162</v>
+        <v>2997318.915439798</v>
       </c>
       <c r="N93" s="3">
-        <v>3265914.573142322</v>
+        <v>3099830.174666676</v>
       </c>
       <c r="O93" s="3">
-        <v>3373636.501008138</v>
+        <v>3202072.240260701</v>
       </c>
       <c r="P93" s="3">
-        <v>3485347.358550946</v>
+        <v>3308098.147032259</v>
       </c>
       <c r="Q93" s="3">
-        <v>37284495.89422256</v>
+        <v>35388506.82833096</v>
       </c>
     </row>
     <row r="94" spans="1:17">
@@ -5100,43 +5100,43 @@
         <v>0.1883766607292806</v>
       </c>
       <c r="D94" s="3">
-        <v>0.2031450190815312</v>
+        <v>0.1928152167949394</v>
       </c>
       <c r="E94" s="3">
-        <v>0.2031608121227274</v>
+        <v>0.192830404758016</v>
       </c>
       <c r="F94" s="3">
-        <v>0.2031636918874101</v>
+        <v>0.1928331742566661</v>
       </c>
       <c r="G94" s="3">
-        <v>0.2031552187979132</v>
+        <v>0.1928250261194526</v>
       </c>
       <c r="H94" s="3">
-        <v>0.2031391622547603</v>
+        <v>0.1928095848561666</v>
       </c>
       <c r="I94" s="3">
-        <v>0.2031188137434778</v>
+        <v>0.1927900154567634</v>
       </c>
       <c r="J94" s="3">
-        <v>0.2030999138329048</v>
+        <v>0.1927718376658389</v>
       </c>
       <c r="K94" s="3">
-        <v>0.2030904458621932</v>
+        <v>0.1927627273532914</v>
       </c>
       <c r="L94" s="3">
-        <v>0.2030822052941243</v>
+        <v>0.1927547965602622</v>
       </c>
       <c r="M94" s="3">
-        <v>0.2030783930155837</v>
+        <v>0.1927511228569712</v>
       </c>
       <c r="N94" s="3">
-        <v>0.203074777858854</v>
+        <v>0.1927476392975376</v>
       </c>
       <c r="O94" s="3">
-        <v>0.203066517607251</v>
+        <v>0.1927396916538818</v>
       </c>
       <c r="P94" s="3">
-        <v>0.2030480110778896</v>
+        <v>0.1927218954396031</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>10</v>
@@ -5151,43 +5151,43 @@
         <v>0</v>
       </c>
       <c r="D95" s="3">
-        <v>89.11081217656064</v>
+        <v>84.72293182499337</v>
       </c>
       <c r="E95" s="3">
-        <v>88.63241457530788</v>
+        <v>84.24235245676944</v>
       </c>
       <c r="F95" s="3">
-        <v>88.3606758068516</v>
+        <v>83.96664792017235</v>
       </c>
       <c r="G95" s="3">
-        <v>88.16540233488507</v>
+        <v>83.76807929869446</v>
       </c>
       <c r="H95" s="3">
-        <v>87.98452088258327</v>
+        <v>83.58570881593468</v>
       </c>
       <c r="I95" s="3">
-        <v>87.83240648845536</v>
+        <v>83.43268616936375</v>
       </c>
       <c r="J95" s="3">
-        <v>87.72846969151018</v>
+        <v>83.32728287228298</v>
       </c>
       <c r="K95" s="3">
-        <v>87.61411796546498</v>
+        <v>83.21282760673988</v>
       </c>
       <c r="L95" s="3">
-        <v>87.5256781329369</v>
+        <v>83.12402823640102</v>
       </c>
       <c r="M95" s="3">
-        <v>87.45449941598834</v>
+        <v>83.05243145154348</v>
       </c>
       <c r="N95" s="3">
-        <v>87.39703677793875</v>
+        <v>82.99450665413615</v>
       </c>
       <c r="O95" s="3">
-        <v>87.3387657321104</v>
+        <v>82.93618785495521</v>
       </c>
       <c r="P95" s="3">
-        <v>87.2964470593909</v>
+        <v>82.89351924541137</v>
       </c>
       <c r="Q95" s="3" t="s">
         <v>10</v>
@@ -5202,43 +5202,43 @@
         <v>0</v>
       </c>
       <c r="D96" s="3">
-        <v>3.835134877096432</v>
+        <v>3.279911459108935</v>
       </c>
       <c r="E96" s="3">
-        <v>3.826987017413109</v>
+        <v>3.272943188318215</v>
       </c>
       <c r="F96" s="3">
-        <v>3.830749470186218</v>
+        <v>3.276160940068897</v>
       </c>
       <c r="G96" s="3">
-        <v>3.832942282473472</v>
+        <v>3.278036292665123</v>
       </c>
       <c r="H96" s="3">
-        <v>3.831077735427195</v>
+        <v>3.27644168141438</v>
       </c>
       <c r="I96" s="3">
-        <v>3.830142501533132</v>
+        <v>3.275641843999429</v>
       </c>
       <c r="J96" s="3">
-        <v>3.832124477977858</v>
+        <v>3.277336884059575</v>
       </c>
       <c r="K96" s="3">
-        <v>3.829597493436359</v>
+        <v>3.27517573827976</v>
       </c>
       <c r="L96" s="3">
-        <v>3.8297192784917</v>
+        <v>3.275279892165182</v>
       </c>
       <c r="M96" s="3">
-        <v>3.829980260547172</v>
+        <v>3.275503091103888</v>
       </c>
       <c r="N96" s="3">
-        <v>3.830337856380451</v>
+        <v>3.275808916768145</v>
       </c>
       <c r="O96" s="3">
-        <v>3.829438768075874</v>
+        <v>3.275039992042565</v>
       </c>
       <c r="P96" s="3">
-        <v>3.830052489958931</v>
+        <v>3.275564863657633</v>
       </c>
       <c r="Q96" s="3" t="s">
         <v>10</v>
@@ -6822,43 +6822,43 @@
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="H30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="J30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="M30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="N30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="O30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="P30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Q30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="R30" s="3">
-        <v>0.94570599580244</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -6876,43 +6876,43 @@
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="H31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="J31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="M31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="N31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="O31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="P31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Q31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="R31" s="3">
-        <v>8.301374600205061e-05</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -6930,43 +6930,43 @@
         <v>0.3538</v>
       </c>
       <c r="F32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="G32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="H32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="I32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="J32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="K32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="L32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="M32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="N32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="O32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="P32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="Q32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="R32" s="3">
-        <v>0.0003735911798693349</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -7038,43 +7038,43 @@
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="G34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="H34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="I34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="J34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="K34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="L34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="M34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="N34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="O34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="P34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="Q34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="R34" s="3">
-        <v>0.002253911968723667</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -7092,43 +7092,43 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -7308,43 +7308,43 @@
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="G39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="H39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="I39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="J39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="K39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="L39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="M39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="N39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="O39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="P39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="Q39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
       <c r="R39" s="3">
-        <v>0.6333590012047365</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -7416,43 +7416,43 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="P41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
       <c r="R41" s="3">
-        <v>0</v>
+        <v>1.15643827420651e-11</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -7524,43 +7524,43 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="G43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="H43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="I43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="J43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="K43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="L43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="M43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="N43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="O43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="P43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="Q43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
       <c r="R43" s="3">
-        <v>7082378.891752582</v>
+        <v>7114536.62875</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -7578,43 +7578,43 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="G44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="H44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="I44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="J44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="K44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="L44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="M44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="N44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="O44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="P44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="Q44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
       <c r="R44" s="3">
-        <v>3503.40563378511</v>
+        <v>40092581.1975</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -7632,43 +7632,43 @@
         <v>3317810.965630114</v>
       </c>
       <c r="F45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="G45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="H45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="I45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="J45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="K45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="L45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="M45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="N45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="O45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="P45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="Q45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="R45" s="3">
-        <v>3503.40563378511</v>
+        <v>8908763.192053726</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -7740,43 +7740,43 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="G47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="H47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="I47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="J47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="K47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="L47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="M47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="N47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="O47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="P47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="Q47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="R47" s="3">
-        <v>3503.40563378511</v>
+        <v>1476648.333333333</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -7794,43 +7794,43 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="G48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>11234666.00126742</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -8010,43 +8010,43 @@
         <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="G52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="H52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="I52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="J52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="K52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="L52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="M52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="N52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="O52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="P52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="Q52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="R52" s="3">
-        <v>5578247.333928599</v>
+        <v>8367031.899999999</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -8118,43 +8118,43 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="L54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="M54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="N54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="P54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="Q54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
       <c r="R54" s="3">
-        <v>0</v>
+        <v>297358923.7092902</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -9666,43 +9666,43 @@
         <v>0</v>
       </c>
       <c r="F84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="H84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="J84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="M84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="N84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="O84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="P84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Q84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="R84" s="3">
-        <v>0.8197060899101974</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -9720,43 +9720,43 @@
         <v>0</v>
       </c>
       <c r="F85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="H85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="J85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="M85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="N85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="O85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="P85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Q85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="R85" s="3">
-        <v>0</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -9774,43 +9774,43 @@
         <v>0.3538</v>
       </c>
       <c r="F86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="G86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="H86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="I86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="J86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="K86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="L86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="M86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="N86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="O86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="P86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="Q86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="R86" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -9882,43 +9882,43 @@
         <v>0</v>
       </c>
       <c r="F88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="G88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="H88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="I88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="J88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="K88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="L88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="M88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="N88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="O88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="P88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="Q88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="R88" s="3">
-        <v>0</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -9936,43 +9936,43 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="K89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="L89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -10044,43 +10044,43 @@
         <v>0.8997000000000001</v>
       </c>
       <c r="F91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="G91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="H91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="I91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="J91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="K91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="L91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="M91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="N91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="O91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="P91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="Q91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
       <c r="R91" s="3">
-        <v>0.9499783890477045</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -10152,43 +10152,43 @@
         <v>0</v>
       </c>
       <c r="F93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="G93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="H93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="I93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="J93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="K93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="L93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="M93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="N93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="O93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="P93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="Q93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
       <c r="R93" s="3">
-        <v>0.8677286389730466</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -10260,43 +10260,43 @@
         <v>0</v>
       </c>
       <c r="F95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="G95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="H95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="I95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="J95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="K95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="L95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="M95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="N95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="O95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="P95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="Q95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
       <c r="R95" s="3">
-        <v>0</v>
+        <v>6.862387161228483e-12</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -10368,43 +10368,43 @@
         <v>0</v>
       </c>
       <c r="F97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="G97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="H97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="I97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="J97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="K97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="L97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="M97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="N97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="O97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="P97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="Q97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
       <c r="R97" s="3">
-        <v>6138767.369974253</v>
+        <v>7114536.62875</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -10422,43 +10422,43 @@
         <v>0</v>
       </c>
       <c r="F98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="G98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="H98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="I98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="J98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="K98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="L98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="M98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="N98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="O98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="P98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="Q98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
       <c r="R98" s="3">
-        <v>0</v>
+        <v>40092581.1975</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -10476,43 +10476,43 @@
         <v>3317810.965630114</v>
       </c>
       <c r="F99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="G99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="H99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="I99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="J99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="K99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="L99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="M99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="N99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="O99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="P99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="Q99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="R99" s="3">
-        <v>0</v>
+        <v>8908763.192053726</v>
       </c>
     </row>
     <row r="100" spans="1:18">
@@ -10584,43 +10584,43 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="R101" s="3">
-        <v>0</v>
+        <v>1476648.333333333</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -10638,43 +10638,43 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="I102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -10746,43 +10746,43 @@
         <v>3248848.027554</v>
       </c>
       <c r="F104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="G104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="H104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="I104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="J104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="K104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="L104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="M104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="N104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="O104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="P104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="Q104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
       <c r="R104" s="3">
-        <v>3430405.041098768</v>
+        <v>3430483.079</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -10854,43 +10854,43 @@
         <v>0</v>
       </c>
       <c r="F106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="G106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="H106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="I106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="J106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="K106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="L106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="M106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="N106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="O106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="P106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="Q106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="R106" s="3">
-        <v>7642434.950348489</v>
+        <v>8367031.899999999</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -10962,43 +10962,43 @@
         <v>0</v>
       </c>
       <c r="F108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="G108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="H108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="I108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="J108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="K108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="L108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="M108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="N108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="O108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="P108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="Q108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
       <c r="R108" s="3">
-        <v>0</v>
+        <v>176454905.1906385</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -12510,43 +12510,43 @@
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="H138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="J138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="M138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="N138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="O138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="P138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Q138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="R138" s="3">
-        <v>0.5748828732356916</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -12564,43 +12564,43 @@
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="G139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="H139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="I139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="J139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="K139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="L139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="M139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="N139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="O139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="P139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="Q139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="R139" s="3">
-        <v>3.824738990653817e-06</v>
+        <v>0.9500000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -12618,43 +12618,43 @@
         <v>0.3538</v>
       </c>
       <c r="F140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="G140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="H140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="I140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="J140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="K140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="L140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="M140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="N140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="O140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="P140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="Q140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="R140" s="3">
-        <v>1.721267646656148e-05</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -12726,43 +12726,43 @@
         <v>0</v>
       </c>
       <c r="F142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="G142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="H142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="I142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="J142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="K142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="L142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="M142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="N142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="O142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="P142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="Q142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
       <c r="R142" s="3">
-        <v>0.0001038457533053112</v>
+        <v>0.9499999999999998</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -12780,43 +12780,43 @@
         <v>0</v>
       </c>
       <c r="F143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="G143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="H143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="I143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="J143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="K143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="L143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="M143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="N143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="O143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="P143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="Q143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
       <c r="R143" s="3">
-        <v>0</v>
+        <v>0.05000000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -12996,43 +12996,43 @@
         <v>0</v>
       </c>
       <c r="F147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="G147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="H147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="I147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="J147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="K147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="L147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="M147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="N147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="O147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="P147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="Q147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
       <c r="R147" s="3">
-        <v>0.4827316389036234</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -13104,43 +13104,43 @@
         <v>0</v>
       </c>
       <c r="F149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="G149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="H149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="I149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="J149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="K149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="L149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="M149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="N149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="O149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="P149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="Q149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
       <c r="R149" s="3">
-        <v>0</v>
+        <v>1.050445780565387e-11</v>
       </c>
     </row>
     <row r="150" spans="1:18">
@@ -13212,43 +13212,43 @@
         <v>0</v>
       </c>
       <c r="F151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="G151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="H151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="I151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="J151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="K151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="L151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="M151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="N151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="O151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="P151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="Q151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
       <c r="R151" s="3">
-        <v>4305289.746185654</v>
+        <v>7114536.62875</v>
       </c>
     </row>
     <row r="152" spans="1:18">
@@ -13266,43 +13266,43 @@
         <v>0</v>
       </c>
       <c r="F152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="G152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="H152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="I152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="J152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="K152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="L152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="M152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="N152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="O152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="P152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="Q152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
       <c r="R152" s="3">
-        <v>161.4143774126656</v>
+        <v>40092581.1975</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -13320,43 +13320,43 @@
         <v>3317810.965630114</v>
       </c>
       <c r="F153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="G153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="H153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="I153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="J153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="K153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="L153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="M153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="N153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="O153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="P153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="Q153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
       <c r="R153" s="3">
-        <v>161.4143774126656</v>
+        <v>8908763.192053726</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -13428,43 +13428,43 @@
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="G155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="H155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="I155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="J155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="K155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="L155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="M155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="N155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="O155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="P155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="Q155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
       <c r="R155" s="3">
-        <v>161.4143774126656</v>
+        <v>1476648.333333333</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -13482,43 +13482,43 @@
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="G156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="H156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="I156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="J156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="K156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="L156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="M156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="N156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="O156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="P156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="Q156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
       <c r="R156" s="3">
-        <v>0</v>
+        <v>38488877.9496</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -13698,43 +13698,43 @@
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="G160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="H160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="I160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="J160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="K160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="L160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="M160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="N160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="O160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="P160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="Q160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
       <c r="R160" s="3">
-        <v>4251611.601943051</v>
+        <v>8367031.899999999</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -13806,43 +13806,43 @@
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="G162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="H162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="I162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="J162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="K162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="L162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="M162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="N162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="O162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="P162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="Q162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
       <c r="R162" s="3">
-        <v>0</v>
+        <v>270104711.7609577</v>
       </c>
     </row>
     <row r="163" spans="1:18">
